--- a/DataTest/GetProductInfo.xlsx
+++ b/DataTest/GetProductInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>Cosy Thuy Dung NZZXDGMN</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Gio qua Tet Thuy Dung GNMPQVFO</t>
+  </si>
+  <si>
+    <t>$500,000.00</t>
+  </si>
+  <si>
+    <t>Giỏ Quà Tết cao cấp, sang trọng dành cho mùa Tết 2024, hứa hẹn sẽ là món quà tinh thần ý nghĩa nhất cho người thân.</t>
   </si>
 </sst>
 </file>
@@ -281,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,6 +638,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -1083,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -1694,6 +1721,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="s" s="176">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s" s="177">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s" s="178">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s" s="179">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s" s="180">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
